--- a/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="2397">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250425120000</t>
+    <t>20250625120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T12:00:00+01:00</t>
+    <t>2025-06-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1716,13 +1716,13 @@
     <t>0500</t>
   </si>
   <si>
-    <t>Vaccination antirabique (rage)</t>
+    <t>Vaccination antirabique (rage) post-exposition</t>
   </si>
   <si>
     <t>0501</t>
   </si>
   <si>
-    <t>Vaccinations internationales et conseils aux voyageurs (fièvre jaune, encéphalite…)</t>
+    <t>Vaccinations des voyageurs</t>
   </si>
   <si>
     <t>0503</t>
@@ -1749,12 +1749,6 @@
     <t>Acupuncture</t>
   </si>
   <si>
-    <t>0510</t>
-  </si>
-  <si>
-    <t>Dialyse péritonéale</t>
-  </si>
-  <si>
     <t>0512</t>
   </si>
   <si>
@@ -3699,6 +3693,18 @@
     <t>Drainage bronchique</t>
   </si>
   <si>
+    <t>0897</t>
+  </si>
+  <si>
+    <t>Drainage Vaccination épidémie Grippe</t>
+  </si>
+  <si>
+    <t>0898</t>
+  </si>
+  <si>
+    <t>Dépistage du diabète</t>
+  </si>
+  <si>
     <t>0909</t>
   </si>
   <si>
@@ -4170,7 +4176,7 @@
     <t>1013</t>
   </si>
   <si>
-    <t>Vaccination contre les maladies sexuellement transmissibles</t>
+    <t>Vaccination contre les infections sexuellement transmissible (IST)</t>
   </si>
   <si>
     <t>1014</t>
@@ -5526,13 +5532,13 @@
     <t>1244</t>
   </si>
   <si>
-    <t>Pose d'implants contraceptifs</t>
+    <t>Pose et retrait d’implants contraceptifs</t>
   </si>
   <si>
     <t>1245</t>
   </si>
   <si>
-    <t>Pose de DIU</t>
+    <t>Pose et retrait de stérilet (DIU/SIU)</t>
   </si>
   <si>
     <t>1246</t>
@@ -5766,7 +5772,7 @@
     <t>1284</t>
   </si>
   <si>
-    <t>Programme d'ETP labellisée - Insuffisance rénale, dialyse</t>
+    <t>Programme d'ETP labellisée - Maladie rénale chronique (MRC), dialyse</t>
   </si>
   <si>
     <t>1285</t>
@@ -6087,12 +6093,6 @@
     <t>Rééducation pelvi-périnéale</t>
   </si>
   <si>
-    <t>1342</t>
-  </si>
-  <si>
-    <t>Retrait de Dispositif Intra-Utérin (DIU) (stérilet) ou d'implant contraceptif</t>
-  </si>
-  <si>
     <t>1343</t>
   </si>
   <si>
@@ -7033,6 +7033,168 @@
   </si>
   <si>
     <t>Accompagnement précoce des déficiences</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>Consultation spécialisée en allaitement</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>Consultations néonatales pédiatriques</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>Dialyse longue nocturne</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>Diathermie et électrothérapie combinées en soins pelvi-périnéaux</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>Évaluation et adaptation diététique de nutrition artificielle</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>Parcours surpoids et obésité pédiatrique « Mission : Retrouve ton Cap »</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>Participation au dispositif HandiGynéco</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>Séance de préparation à la naissance et à la parentalité individuelle</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel adulte pendant et après les traitements oncologiques</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel des alimentations pauvres en FODMAPs</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel des allergies alimentaires</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel des personnes en situation de handicap</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel des Troubles Alimentaires Pédiatriques (TAP)</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel des troubles de la déglutition ou dysphagies</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel pédiatrique pendant et après les traitements oncologiques</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel pour la gestion des troubles hormonaux (hypothyroïdie, SOPK, endométriose)</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>Soin diététique et nutritionnel des diabètes</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>Soins gynécologiques pour personnes en situation de handicap</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>Suivi post-accouchement à domicile</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>Suivi staturopondéral des nourrissons</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>Surveillance d'ictère néonatal par mesure transcutanée</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>Test de Guthrie hors établissement (test néonatal du buvard)</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>Vaccination contre la tuberculose</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>Vaccination du calendrier vaccinal de l’adolescent et de l’adulte</t>
+  </si>
+  <si>
+    <t>1536</t>
+  </si>
+  <si>
+    <t>Vaccination du calendrier vaccinal du jeune enfant (0-12 ans)</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>Vaccination du calendrier vaccinal du sénior</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>Vaccination épidémie Covid</t>
   </si>
   <si>
     <t/>
@@ -7306,7 +7468,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1159"/>
+  <dimension ref="A1:B1186"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16577,15 +16739,231 @@
         <v>2340</v>
       </c>
       <c r="B1158" t="s" s="2">
-        <v>2340</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="s" s="2">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B1159" t="s" s="2">
-        <v>2342</v>
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="s" s="2">
+        <v>2344</v>
+      </c>
+      <c r="B1160" t="s" s="2">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="s" s="2">
+        <v>2346</v>
+      </c>
+      <c r="B1161" t="s" s="2">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="s" s="2">
+        <v>2348</v>
+      </c>
+      <c r="B1162" t="s" s="2">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="s" s="2">
+        <v>2350</v>
+      </c>
+      <c r="B1163" t="s" s="2">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="s" s="2">
+        <v>2352</v>
+      </c>
+      <c r="B1164" t="s" s="2">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="s" s="2">
+        <v>2354</v>
+      </c>
+      <c r="B1165" t="s" s="2">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="s" s="2">
+        <v>2356</v>
+      </c>
+      <c r="B1166" t="s" s="2">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="s" s="2">
+        <v>2358</v>
+      </c>
+      <c r="B1167" t="s" s="2">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="s" s="2">
+        <v>2360</v>
+      </c>
+      <c r="B1168" t="s" s="2">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="s" s="2">
+        <v>2362</v>
+      </c>
+      <c r="B1169" t="s" s="2">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="s" s="2">
+        <v>2364</v>
+      </c>
+      <c r="B1170" t="s" s="2">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="s" s="2">
+        <v>2366</v>
+      </c>
+      <c r="B1171" t="s" s="2">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="s" s="2">
+        <v>2368</v>
+      </c>
+      <c r="B1172" t="s" s="2">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="s" s="2">
+        <v>2370</v>
+      </c>
+      <c r="B1173" t="s" s="2">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="s" s="2">
+        <v>2372</v>
+      </c>
+      <c r="B1174" t="s" s="2">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="s" s="2">
+        <v>2374</v>
+      </c>
+      <c r="B1175" t="s" s="2">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="s" s="2">
+        <v>2376</v>
+      </c>
+      <c r="B1176" t="s" s="2">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="s" s="2">
+        <v>2378</v>
+      </c>
+      <c r="B1177" t="s" s="2">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="s" s="2">
+        <v>2380</v>
+      </c>
+      <c r="B1178" t="s" s="2">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="s" s="2">
+        <v>2382</v>
+      </c>
+      <c r="B1179" t="s" s="2">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="s" s="2">
+        <v>2384</v>
+      </c>
+      <c r="B1180" t="s" s="2">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="s" s="2">
+        <v>2386</v>
+      </c>
+      <c r="B1181" t="s" s="2">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="s" s="2">
+        <v>2388</v>
+      </c>
+      <c r="B1182" t="s" s="2">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="s" s="2">
+        <v>2390</v>
+      </c>
+      <c r="B1183" t="s" s="2">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="s" s="2">
+        <v>2392</v>
+      </c>
+      <c r="B1184" t="s" s="2">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="s" s="2">
+        <v>2394</v>
+      </c>
+      <c r="B1185" t="s" s="2">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="s" s="2">
+        <v>2395</v>
+      </c>
+      <c r="B1186" t="s" s="2">
+        <v>2396</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="2397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="2409">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250625120000</t>
+    <t>20250919120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T12:00:00+01:00</t>
+    <t>2025-09-19T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,12 +291,6 @@
     <t>Chirurgie carcinologique gynécologique</t>
   </si>
   <si>
-    <t>0055</t>
-  </si>
-  <si>
-    <t>Chirurgie carcinologique maxillo-faciale et stomatologique</t>
-  </si>
-  <si>
     <t>0056</t>
   </si>
   <si>
@@ -1338,7 +1332,7 @@
     <t>0384</t>
   </si>
   <si>
-    <t>Prélèvement d'organes à coeur battant</t>
+    <t>Prélèvement d'organes à coeur battant (mort cérébrale)</t>
   </si>
   <si>
     <t>0385</t>
@@ -1413,12 +1407,6 @@
     <t>Rééducation basse vision</t>
   </si>
   <si>
-    <t>0413</t>
-  </si>
-  <si>
-    <t>Rééducation orthoptique</t>
-  </si>
-  <si>
     <t>0415</t>
   </si>
   <si>
@@ -1533,12 +1521,6 @@
     <t>Scintigraphie SPECT-CT</t>
   </si>
   <si>
-    <t>0440</t>
-  </si>
-  <si>
-    <t>Soins odontologiques sous anesthésie générale (AG)</t>
-  </si>
-  <si>
     <t>0441</t>
   </si>
   <si>
@@ -2763,12 +2745,6 @@
     <t>Suivi de grossesse à risque</t>
   </si>
   <si>
-    <t>0731</t>
-  </si>
-  <si>
-    <t>Surveillance du nouveau-né à risque</t>
-  </si>
-  <si>
     <t>0732</t>
   </si>
   <si>
@@ -3198,7 +3174,7 @@
     <t>0810</t>
   </si>
   <si>
-    <t>Préparation à la naissance et à la parentalité</t>
+    <t>Séance de préparation à la naissance et à la parentalité en groupe</t>
   </si>
   <si>
     <t>0812</t>
@@ -3669,12 +3645,6 @@
     <t>Réadaptation vésico-sphinctérienne</t>
   </si>
   <si>
-    <t>0893</t>
-  </si>
-  <si>
-    <t>Réadaptation des fonctions sexuelles et de la reproduction</t>
-  </si>
-  <si>
     <t>0894</t>
   </si>
   <si>
@@ -3846,7 +3816,7 @@
     <t>0932</t>
   </si>
   <si>
-    <t>Tests Rapides d'Orientation Diagnostique (TROD)</t>
+    <t>Test Rapide d’Orientation Diagnostique (TROD) VIH / Hépatite B / Hépatite C</t>
   </si>
   <si>
     <t>0958</t>
@@ -4761,12 +4731,6 @@
     <t>Test au baclofène intrathécal</t>
   </si>
   <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>Thérapie manuelle</t>
-  </si>
-  <si>
     <t>1114</t>
   </si>
   <si>
@@ -6870,7 +6834,7 @@
     <t>1484</t>
   </si>
   <si>
-    <t>Télésurveillance médicale de l'insuffisance rénale</t>
+    <t>Télésurveillance médicale de la maladie rénale chronique (MRC)</t>
   </si>
   <si>
     <t>1485</t>
@@ -7195,6 +7159,78 @@
   </si>
   <si>
     <t>Vaccination épidémie Covid</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>Test Rapide d’Orientation Diagnostique (TROD) Covid-19</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>Test Rapide d’Orientation Diagnostique (TROD) Grippe</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>Test Rapide d’Orientation Diagnostique (TROD) Virus respiratoire syncytial (VRS)</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>Test Rapide d’Orientation Diagnostique (TROD) Angine</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>Test Rapide d’Orientation Diagnostique (TROD) Syphilis</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>Test Rapide d’Orientation Diagnostique (TROD) Cystite</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>Chirurgie de l’allongement osseux</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>Correction des malformations congénitales de la main</t>
+  </si>
+  <si>
+    <t>1547</t>
+  </si>
+  <si>
+    <t>Accueil saisonnier possible</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>Accueil saisonnier uniquement</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>Autodialyse simple</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>Autodialyse assistée</t>
   </si>
   <si>
     <t/>
@@ -7468,7 +7504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1186"/>
+  <dimension ref="A1:B1192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16955,15 +16991,63 @@
         <v>2394</v>
       </c>
       <c r="B1185" t="s" s="2">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="s" s="2">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="B1186" t="s" s="2">
-        <v>2396</v>
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="s" s="2">
+        <v>2398</v>
+      </c>
+      <c r="B1187" t="s" s="2">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="s" s="2">
+        <v>2400</v>
+      </c>
+      <c r="B1188" t="s" s="2">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="s" s="2">
+        <v>2402</v>
+      </c>
+      <c r="B1189" t="s" s="2">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="s" s="2">
+        <v>2404</v>
+      </c>
+      <c r="B1190" t="s" s="2">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="s" s="2">
+        <v>2406</v>
+      </c>
+      <c r="B1191" t="s" s="2">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="s" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B1192" t="s" s="2">
+        <v>2408</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="2409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="2421">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250919120000</t>
+    <t>20251017120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T12:00:00+01:00</t>
+    <t>2025-10-17T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7231,6 +7231,42 @@
   </si>
   <si>
     <t>Autodialyse assistée</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>Accueil en unité protégée</t>
+  </si>
+  <si>
+    <t>1552</t>
+  </si>
+  <si>
+    <t>Rééducation par réalité virtuelle</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>Rééducation de l’amputé</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>Rééducation vestibulaire (trouble de l’équilibre)</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>Rééducation du rachis</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>Rééducation des paralysies cérébrales et polyhandicaps</t>
   </si>
   <si>
     <t/>
@@ -7504,7 +7540,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1192"/>
+  <dimension ref="A1:B1198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17039,15 +17075,63 @@
         <v>2406</v>
       </c>
       <c r="B1191" t="s" s="2">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="s" s="2">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="B1192" t="s" s="2">
-        <v>2408</v>
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="s" s="2">
+        <v>2410</v>
+      </c>
+      <c r="B1193" t="s" s="2">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="s" s="2">
+        <v>2412</v>
+      </c>
+      <c r="B1194" t="s" s="2">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="s" s="2">
+        <v>2414</v>
+      </c>
+      <c r="B1195" t="s" s="2">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="s" s="2">
+        <v>2416</v>
+      </c>
+      <c r="B1196" t="s" s="2">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="s" s="2">
+        <v>2418</v>
+      </c>
+      <c r="B1197" t="s" s="2">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="s" s="2">
+        <v>2419</v>
+      </c>
+      <c r="B1198" t="s" s="2">
+        <v>2420</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="2421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="2455">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251017120000</t>
+    <t>20251222120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:00:00+01:00</t>
+    <t>2025-12-22T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1782,13 +1782,13 @@
     <t>0523</t>
   </si>
   <si>
-    <t>Sevrage simple</t>
+    <t>Sevrage à faible risque de complication médicale (sevrage simple)</t>
   </si>
   <si>
     <t>0524</t>
   </si>
   <si>
-    <t>Sevrage complexe</t>
+    <t>Sevrage à fort risque de complication médicale (sevrage complexe)</t>
   </si>
   <si>
     <t>0525</t>
@@ -3402,13 +3402,13 @@
     <t>0849</t>
   </si>
   <si>
-    <t>Suivi cardiologique avec organisation de la prise en charge</t>
+    <t>Coordination pour assurer le suivi cardiologique avec organisation de la prise en charge</t>
   </si>
   <si>
     <t>0850</t>
   </si>
   <si>
-    <t>Suivi gynécologique avec organisation de la prise en charge</t>
+    <t>Coordination pour assurer le suivi gynécologique avec organisation de la prise en charge</t>
   </si>
   <si>
     <t>0851</t>
@@ -3474,7 +3474,7 @@
     <t>0861</t>
   </si>
   <si>
-    <t>Dépistage et suivi des pathologies endocriniennes</t>
+    <t>Dépistage et suivi biologique des pathologies endocriniennes</t>
   </si>
   <si>
     <t>0862</t>
@@ -3609,12 +3609,6 @@
     <t>Soins permanents continus par délégation / Présence aide-soignant de nuit</t>
   </si>
   <si>
-    <t>0887</t>
-  </si>
-  <si>
-    <t>Chirurgie sénologique</t>
-  </si>
-  <si>
     <t>0888</t>
   </si>
   <si>
@@ -3858,13 +3852,13 @@
     <t>0965</t>
   </si>
   <si>
-    <t>Réadaptation du cancer du sein</t>
+    <t>Rééducation du cancer du sein</t>
   </si>
   <si>
     <t>0966</t>
   </si>
   <si>
-    <t>Réadaptation des cicatrices</t>
+    <t>Rééducation des cicatrices</t>
   </si>
   <si>
     <t>0967</t>
@@ -3876,7 +3870,7 @@
     <t>0968</t>
   </si>
   <si>
-    <t>Réadaptation de la main</t>
+    <t>Rééducation de la main</t>
   </si>
   <si>
     <t>0969</t>
@@ -3900,7 +3894,7 @@
     <t>0972</t>
   </si>
   <si>
-    <t>Réadaptation maxillo-faciale</t>
+    <t>Rééducation maxillo-faciale</t>
   </si>
   <si>
     <t>0973</t>
@@ -3912,7 +3906,7 @@
     <t>0974</t>
   </si>
   <si>
-    <t>Réadaptation de la Mucoviscidose</t>
+    <t>Rééducation de la Mucoviscidose</t>
   </si>
   <si>
     <t>0975</t>
@@ -4146,7 +4140,7 @@
     <t>1013</t>
   </si>
   <si>
-    <t>Vaccination contre les infections sexuellement transmissible (IST)</t>
+    <t>Vaccination contre les infections sexuellement transmissibles (IST)</t>
   </si>
   <si>
     <t>1014</t>
@@ -4860,7 +4854,7 @@
     <t>1135</t>
   </si>
   <si>
-    <t>Angio IRM cérébral</t>
+    <t>Angio IRM cérébrale</t>
   </si>
   <si>
     <t>1136</t>
@@ -5184,7 +5178,7 @@
     <t>1191</t>
   </si>
   <si>
-    <t>Embolisation cérébrale anévrisme MAV</t>
+    <t>Embolisation cérébrale anévrisme Malformation Antéro Veineuse (MAV)</t>
   </si>
   <si>
     <t>1192</t>
@@ -5352,7 +5346,7 @@
     <t>1220</t>
   </si>
   <si>
-    <t>IRM CAI et APC</t>
+    <t>IRM Conduit Auditif Interne (CAI) et Angle Ponto-Cérébelleux (APC)</t>
   </si>
   <si>
     <t>1221</t>
@@ -5604,7 +5598,7 @@
     <t>1262</t>
   </si>
   <si>
-    <t>Scanner pré TAVI</t>
+    <t>Scanner pré Implantation d'une valve aortique par voie percutanée (TAVI)</t>
   </si>
   <si>
     <t>1263</t>
@@ -6666,7 +6660,7 @@
     <t>1454</t>
   </si>
   <si>
-    <t>Evaluation et suivi standardisé clinique et paraclinique des commotions cérébrales (Traumatisme Crânien Léger - TCL)</t>
+    <t>Evaluation et suivi standardisé clinique et paraclinique des commotions cérébrales (Traumatisme Crânien Léger - TCL) dans un cadre sportif</t>
   </si>
   <si>
     <t>1455</t>
@@ -6738,7 +6732,7 @@
     <t>1467</t>
   </si>
   <si>
-    <t>Examen visuel du sportif</t>
+    <t>Evaluation de la vue du sportif</t>
   </si>
   <si>
     <t>1468</t>
@@ -6798,19 +6792,19 @@
     <t>1478</t>
   </si>
   <si>
-    <t>Réadaptation des migraines et céphalées</t>
+    <t>Rééducation des migraines et céphalées</t>
   </si>
   <si>
     <t>1479</t>
   </si>
   <si>
-    <t>Réadaptation abdominale du post partum</t>
+    <t>Rééducation abdominale du post partum</t>
   </si>
   <si>
     <t>1480</t>
   </si>
   <si>
-    <t>Réadaptation abdominale préopératoire et post opératoire</t>
+    <t>Rééducation abdominale préopératoire et post opératoire</t>
   </si>
   <si>
     <t>1481</t>
@@ -7267,6 +7261,114 @@
   </si>
   <si>
     <t>Rééducation des paralysies cérébrales et polyhandicaps</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>Prise en charge de bébé grand prématuré (&lt; 28 SA)</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>Veille sanitaire et analyse de produit in situ</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi des addictions liées au cannabis et cannabinoïdes</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi des addictions liées aux psychostimulants (cocaïne, crack, dérivés des amphétamines, ecstasy, MDMA, cathinones de synthèse…)</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi des addictions liées aux opiacés (héroïne, morphinique)</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi des addictions liées aux autres substances (hallucinogènes, champignons, LSD, kétamine)</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi des addictions liées aux benzodiazépines et autres sédatifs</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi des addictions liées au chemsex (cathinones de synthèse, poppers, etc)</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>Rééducation vésico-sphinctérienne</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>Rééducation anorectale</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>Rééducation des troubles de la déglutition</t>
+  </si>
+  <si>
+    <t>1573</t>
+  </si>
+  <si>
+    <t>Rééducation post-COVID (COVID long)</t>
+  </si>
+  <si>
+    <t>1574</t>
+  </si>
+  <si>
+    <t>Centre Ressources Autisme (CRA)</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>Centre de référence des Troubles du Langage et de l’Apprentissage (CRTLA)</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>Centre de référence du Trouble Déficit de l’Attention avec ou sans Hyperactivité (CRTDAH)</t>
+  </si>
+  <si>
+    <t>1577</t>
+  </si>
+  <si>
+    <t>Centre de compétence centre mémoire ressources et recherche (CMRR)</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>Centre expert Parkinson</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>Centre de ressources et de compétences sclérose en plaques (SEP)</t>
   </si>
   <si>
     <t/>
@@ -7540,7 +7642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1198"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17123,15 +17225,151 @@
         <v>2418</v>
       </c>
       <c r="B1197" t="s" s="2">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="s" s="2">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B1198" t="s" s="2">
-        <v>2420</v>
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="s" s="2">
+        <v>2422</v>
+      </c>
+      <c r="B1199" t="s" s="2">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="s" s="2">
+        <v>2424</v>
+      </c>
+      <c r="B1200" t="s" s="2">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="s" s="2">
+        <v>2426</v>
+      </c>
+      <c r="B1201" t="s" s="2">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="s" s="2">
+        <v>2428</v>
+      </c>
+      <c r="B1202" t="s" s="2">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="s" s="2">
+        <v>2430</v>
+      </c>
+      <c r="B1203" t="s" s="2">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="s" s="2">
+        <v>2432</v>
+      </c>
+      <c r="B1204" t="s" s="2">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="s" s="2">
+        <v>2434</v>
+      </c>
+      <c r="B1205" t="s" s="2">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="s" s="2">
+        <v>2436</v>
+      </c>
+      <c r="B1206" t="s" s="2">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="s" s="2">
+        <v>2438</v>
+      </c>
+      <c r="B1207" t="s" s="2">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="s" s="2">
+        <v>2440</v>
+      </c>
+      <c r="B1208" t="s" s="2">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="s" s="2">
+        <v>2442</v>
+      </c>
+      <c r="B1209" t="s" s="2">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="s" s="2">
+        <v>2444</v>
+      </c>
+      <c r="B1210" t="s" s="2">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="s" s="2">
+        <v>2446</v>
+      </c>
+      <c r="B1211" t="s" s="2">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="s" s="2">
+        <v>2448</v>
+      </c>
+      <c r="B1212" t="s" s="2">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="s" s="2">
+        <v>2450</v>
+      </c>
+      <c r="B1213" t="s" s="2">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="s" s="2">
+        <v>2452</v>
+      </c>
+      <c r="B1214" t="s" s="2">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="s" s="2">
+        <v>2453</v>
+      </c>
+      <c r="B1215" t="s" s="2">
+        <v>2454</v>
       </c>
     </row>
   </sheetData>
